--- a/data/trans_orig/P33B3_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33B3_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67B91F15-E5F0-417D-818D-38E50993BDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D4FA1C1-C1C8-49D4-BAAD-F347D7DD3107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A39B1321-2FCE-4F3E-86C2-E1EC0115CE4B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7A232C38-5FDB-4626-89EE-FF240EC06008}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="224">
   <si>
     <t>Poblacion que se despierta demasiado temprano de forma involuntaria en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>3,88%</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
   </si>
   <si>
     <t>7,14%</t>
   </si>
   <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
   </si>
   <si>
     <t>5,72%</t>
   </si>
   <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
   </si>
   <si>
     <t>A menudo (alguna vez a la semana)</t>
@@ -104,25 +104,28 @@
     <t>3,71%</t>
   </si>
   <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
   </si>
   <si>
     <t>8,85%</t>
   </si>
   <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
   </si>
   <si>
     <t>6,61%</t>
   </si>
   <si>
-    <t>4,57%</t>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
   </si>
   <si>
     <t>Ocasionalmente (alguna vez al mes)</t>
@@ -131,28 +134,28 @@
     <t>22,0%</t>
   </si>
   <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
   </si>
   <si>
     <t>32,75%</t>
   </si>
   <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
   </si>
   <si>
     <t>28,07%</t>
   </si>
   <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -161,19 +164,19 @@
     <t>70,4%</t>
   </si>
   <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
   </si>
   <si>
     <t>51,26%</t>
   </si>
   <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
   </si>
   <si>
     <t>59,6%</t>
@@ -182,7 +185,7 @@
     <t>53,65%</t>
   </si>
   <si>
-    <t>65,1%</t>
+    <t>65,36%</t>
   </si>
   <si>
     <t>100%</t>
@@ -194,109 +197,109 @@
     <t>8,74%</t>
   </si>
   <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
   </si>
   <si>
     <t>11,26%</t>
   </si>
   <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
   </si>
   <si>
     <t>10,05%</t>
   </si>
   <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
   </si>
   <si>
     <t>7,78%</t>
   </si>
   <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
   </si>
   <si>
     <t>13,05%</t>
   </si>
   <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
   </si>
   <si>
     <t>10,51%</t>
   </si>
   <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
   </si>
   <si>
     <t>18,98%</t>
   </si>
   <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
   </si>
   <si>
     <t>23,77%</t>
   </si>
   <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
   </si>
   <si>
     <t>21,46%</t>
   </si>
   <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
   </si>
   <si>
     <t>64,5%</t>
   </si>
   <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
   </si>
   <si>
     <t>51,92%</t>
   </si>
   <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
   </si>
   <si>
     <t>57,97%</t>
   </si>
   <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -305,427 +308,403 @@
     <t>8,44%</t>
   </si>
   <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
   </si>
   <si>
     <t>11,71%</t>
   </si>
   <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
   </si>
   <si>
     <t>10,09%</t>
   </si>
   <si>
-    <t>11,37%</t>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
   </si>
   <si>
     <t>6,66%</t>
   </si>
   <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
   </si>
   <si>
     <t>10,61%</t>
   </si>
   <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
   </si>
   <si>
     <t>14,17%</t>
   </si>
   <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
   </si>
   <si>
     <t>23,07%</t>
   </si>
   <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
   </si>
   <si>
     <t>18,66%</t>
   </si>
   <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
     <t>16,83%</t>
   </si>
   <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
   </si>
   <si>
     <t>61,27%</t>
   </si>
   <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
+    <t>64,68%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1140,7 +1119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70EDF12D-9C68-44F5-970F-7B2E84B5653A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9CAB6D-5BF5-41B7-A5F6-E91F082761D0}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1351,13 +1330,13 @@
         <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>31</v>
@@ -1366,13 +1345,13 @@
         <v>22202</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>88</v>
@@ -1381,13 +1360,13 @@
         <v>42819</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>119</v>
@@ -1396,19 +1375,19 @@
         <v>65021</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>75</v>
@@ -1417,13 +1396,13 @@
         <v>71037</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>113</v>
@@ -1432,13 +1411,13 @@
         <v>67016</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>188</v>
@@ -1447,13 +1426,13 @@
         <v>138053</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1468,13 +1447,13 @@
         <v>100905</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>243</v>
@@ -1483,13 +1462,13 @@
         <v>130733</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>360</v>
@@ -1498,18 +1477,18 @@
         <v>231638</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1521,13 +1500,13 @@
         <v>48081</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>115</v>
@@ -1536,13 +1515,13 @@
         <v>66725</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>168</v>
@@ -1551,13 +1530,13 @@
         <v>114806</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1572,13 +1551,13 @@
         <v>42775</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>142</v>
@@ -1587,13 +1566,13 @@
         <v>77322</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>195</v>
@@ -1602,19 +1581,19 @@
         <v>120096</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
         <v>135</v>
@@ -1623,13 +1602,13 @@
         <v>104337</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>270</v>
@@ -1638,13 +1617,13 @@
         <v>140846</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>405</v>
@@ -1653,19 +1632,19 @@
         <v>245183</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>371</v>
@@ -1674,13 +1653,13 @@
         <v>354630</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>468</v>
@@ -1689,13 +1668,13 @@
         <v>307662</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>839</v>
@@ -1704,13 +1683,13 @@
         <v>662292</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1725,13 +1704,13 @@
         <v>549823</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>995</v>
@@ -1740,13 +1719,13 @@
         <v>592555</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>1607</v>
@@ -1755,18 +1734,18 @@
         <v>1142378</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1778,13 +1757,13 @@
         <v>87681</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>193</v>
@@ -1793,13 +1772,13 @@
         <v>124054</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>290</v>
@@ -1808,13 +1787,13 @@
         <v>211735</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1829,13 +1808,13 @@
         <v>69143</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>178</v>
@@ -1844,13 +1823,13 @@
         <v>112429</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>252</v>
@@ -1859,19 +1838,19 @@
         <v>181573</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
         <v>171</v>
@@ -1922,7 +1901,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>621</v>
@@ -1982,13 +1961,13 @@
         <v>1038276</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>1516</v>
@@ -1997,13 +1976,13 @@
         <v>1059474</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>2479</v>
@@ -2012,13 +1991,13 @@
         <v>2097750</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2101,13 +2080,13 @@
         <v>82542</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>166</v>
@@ -2116,19 +2095,19 @@
         <v>125453</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
         <v>129</v>
@@ -2137,13 +2116,13 @@
         <v>139972</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>198</v>
@@ -2152,13 +2131,13 @@
         <v>128123</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>327</v>
@@ -2167,19 +2146,19 @@
         <v>268095</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>450</v>
@@ -2188,13 +2167,13 @@
         <v>494748</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>638</v>
@@ -2203,13 +2182,13 @@
         <v>599465</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>1088</v>
@@ -2218,13 +2197,13 @@
         <v>1094212</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2239,13 +2218,13 @@
         <v>728772</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>1047</v>
@@ -2254,13 +2233,13 @@
         <v>874371</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>1723</v>
@@ -2269,18 +2248,18 @@
         <v>1603142</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2292,10 +2271,10 @@
         <v>98996</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>162</v>
@@ -2346,10 +2325,10 @@
         <v>169</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>200</v>
@@ -2358,13 +2337,13 @@
         <v>134090</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>295</v>
@@ -2373,10 +2352,10 @@
         <v>220020</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>175</v>
+        <v>102</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>176</v>
@@ -2385,7 +2364,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
         <v>187</v>
@@ -2436,7 +2415,7 @@
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7">
         <v>609</v>
@@ -2478,10 +2457,10 @@
         <v>192</v>
       </c>
       <c r="P27" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2496,28 +2475,28 @@
         <v>965403</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
         <v>1561</v>
       </c>
       <c r="I28" s="7">
-        <v>1147669</v>
+        <v>1147670</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M28" s="7">
         <v>2567</v>
@@ -2526,13 +2505,13 @@
         <v>2113073</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2549,13 +2528,13 @@
         <v>289816</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>195</v>
+        <v>13</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>196</v>
+        <v>104</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H29" s="7">
         <v>615</v>
@@ -2564,13 +2543,13 @@
         <v>399141</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>199</v>
+        <v>141</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M29" s="7">
         <v>937</v>
@@ -2579,13 +2558,13 @@
         <v>688958</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2600,13 +2579,13 @@
         <v>244507</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H30" s="7">
         <v>667</v>
@@ -2615,13 +2594,13 @@
         <v>417952</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="M30" s="7">
         <v>940</v>
@@ -2630,19 +2609,19 @@
         <v>662459</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>210</v>
+        <v>102</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C31" s="7">
         <v>653</v>
@@ -2651,13 +2630,13 @@
         <v>569392</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>112</v>
+        <v>207</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>213</v>
+        <v>66</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H31" s="7">
         <v>1285</v>
@@ -2666,13 +2645,13 @@
         <v>763848</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="M31" s="7">
         <v>1938</v>
@@ -2681,19 +2660,19 @@
         <v>1333241</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
         <v>2126</v>
@@ -2702,13 +2681,13 @@
         <v>2279463</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>221</v>
+        <v>115</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="H32" s="7">
         <v>2795</v>
@@ -2717,13 +2696,13 @@
         <v>2223860</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="M32" s="7">
         <v>4921</v>
@@ -2732,13 +2711,13 @@
         <v>4503323</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2753,13 +2732,13 @@
         <v>3383178</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H33" s="7">
         <v>5362</v>
@@ -2768,13 +2747,13 @@
         <v>3804802</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M33" s="7">
         <v>8736</v>
@@ -2783,18 +2762,18 @@
         <v>7187980</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33B3_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33B3_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D4FA1C1-C1C8-49D4-BAAD-F347D7DD3107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3073864D-1F16-425E-9B4B-EE381CB74F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7A232C38-5FDB-4626-89EE-FF240EC06008}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{83146C33-7343-47D3-9AB3-0FFBF8872437}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Diariamente o casi diariamente</t>
@@ -191,7 +191,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>8,74%</t>
@@ -302,7 +302,7 @@
     <t>60,65%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>8,44%</t>
@@ -407,7 +407,7 @@
     <t>65,94%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>7,02%</t>
@@ -1119,7 +1119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9CAB6D-5BF5-41B7-A5F6-E91F082761D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC4536F-DC8E-4D78-964C-88F77080E9D0}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P33B3_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33B3_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3073864D-1F16-425E-9B4B-EE381CB74F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{152512F3-7555-4B1A-BD74-7D7C3B443D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{83146C33-7343-47D3-9AB3-0FFBF8872437}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EACF6552-4E13-42C1-96C7-92A18496DA23}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="231">
   <si>
     <t>Poblacion que se despierta demasiado temprano de forma involuntaria en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -74,637 +74,658 @@
     <t>3,88%</t>
   </si>
   <si>
-    <t>1,54%</t>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>A menudo (alguna vez a la semana)</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente (alguna vez al mes)</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
   </si>
   <si>
     <t>8,57%</t>
   </si>
   <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>A menudo (alguna vez a la semana)</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>Ocasionalmente (alguna vez al mes)</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
   </si>
   <si>
     <t>9,22%</t>
   </si>
   <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
   </si>
   <si>
     <t>67,38%</t>
   </si>
   <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
   </si>
   <si>
     <t>58,45%</t>
   </si>
   <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
   </si>
   <si>
     <t>62,65%</t>
   </si>
   <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1119,7 +1140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC4536F-DC8E-4D78-964C-88F77080E9D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C319A30-D8A3-4424-AF4D-3037D0A1931D}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1330,13 +1351,13 @@
         <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>31</v>
@@ -1345,13 +1366,13 @@
         <v>22202</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>88</v>
@@ -1360,13 +1381,13 @@
         <v>42819</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>119</v>
@@ -1375,19 +1396,19 @@
         <v>65021</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>75</v>
@@ -1396,13 +1417,13 @@
         <v>71037</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>113</v>
@@ -1411,13 +1432,13 @@
         <v>67016</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>188</v>
@@ -1426,13 +1447,13 @@
         <v>138053</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1447,13 +1468,13 @@
         <v>100905</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>243</v>
@@ -1462,13 +1483,13 @@
         <v>130733</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>360</v>
@@ -1477,18 +1498,18 @@
         <v>231638</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1500,13 +1521,13 @@
         <v>48081</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>115</v>
@@ -1515,13 +1536,13 @@
         <v>66725</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>168</v>
@@ -1530,13 +1551,13 @@
         <v>114806</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1551,13 +1572,13 @@
         <v>42775</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>142</v>
@@ -1566,13 +1587,13 @@
         <v>77322</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>195</v>
@@ -1581,19 +1602,19 @@
         <v>120096</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7">
         <v>135</v>
@@ -1602,13 +1623,13 @@
         <v>104337</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>270</v>
@@ -1617,13 +1638,13 @@
         <v>140846</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>405</v>
@@ -1632,19 +1653,19 @@
         <v>245183</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7">
         <v>371</v>
@@ -1653,13 +1674,13 @@
         <v>354630</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>468</v>
@@ -1668,13 +1689,13 @@
         <v>307662</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>839</v>
@@ -1683,13 +1704,13 @@
         <v>662292</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1704,13 +1725,13 @@
         <v>549823</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>995</v>
@@ -1719,13 +1740,13 @@
         <v>592555</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>1607</v>
@@ -1734,18 +1755,18 @@
         <v>1142378</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1757,13 +1778,13 @@
         <v>87681</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>193</v>
@@ -1772,13 +1793,13 @@
         <v>124054</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>290</v>
@@ -1787,13 +1808,13 @@
         <v>211735</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1808,13 +1829,13 @@
         <v>69143</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>178</v>
@@ -1823,13 +1844,13 @@
         <v>112429</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>252</v>
@@ -1838,19 +1859,19 @@
         <v>181573</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="P15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7">
         <v>171</v>
@@ -1901,7 +1922,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7">
         <v>621</v>
@@ -1961,13 +1982,13 @@
         <v>1038276</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>1516</v>
@@ -1976,13 +1997,13 @@
         <v>1059474</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>2479</v>
@@ -1991,13 +2012,13 @@
         <v>2097750</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2080,13 +2101,13 @@
         <v>82542</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>166</v>
@@ -2095,19 +2116,19 @@
         <v>125453</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="7">
         <v>129</v>
@@ -2116,13 +2137,13 @@
         <v>139972</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>198</v>
@@ -2131,13 +2152,13 @@
         <v>128123</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>327</v>
@@ -2146,19 +2167,19 @@
         <v>268095</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7">
         <v>450</v>
@@ -2167,13 +2188,13 @@
         <v>494748</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>638</v>
@@ -2182,13 +2203,13 @@
         <v>599465</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>1088</v>
@@ -2197,13 +2218,13 @@
         <v>1094212</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2218,13 +2239,13 @@
         <v>728772</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>1047</v>
@@ -2233,13 +2254,13 @@
         <v>874371</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>1723</v>
@@ -2248,18 +2269,18 @@
         <v>1603142</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2271,10 +2292,10 @@
         <v>98996</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>162</v>
@@ -2325,10 +2346,10 @@
         <v>169</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>200</v>
@@ -2337,13 +2358,13 @@
         <v>134090</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>295</v>
@@ -2352,10 +2373,10 @@
         <v>220020</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>176</v>
@@ -2364,7 +2385,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="7">
         <v>187</v>
@@ -2415,7 +2436,7 @@
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="7">
         <v>609</v>
@@ -2457,10 +2478,10 @@
         <v>192</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>46</v>
+        <v>193</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2475,28 +2496,28 @@
         <v>965403</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H28" s="7">
         <v>1561</v>
       </c>
       <c r="I28" s="7">
-        <v>1147670</v>
+        <v>1147669</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M28" s="7">
         <v>2567</v>
@@ -2505,13 +2526,13 @@
         <v>2113073</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2528,13 +2549,13 @@
         <v>289816</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>13</v>
+        <v>195</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>104</v>
+        <v>196</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H29" s="7">
         <v>615</v>
@@ -2543,13 +2564,13 @@
         <v>399141</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M29" s="7">
         <v>937</v>
@@ -2558,13 +2579,13 @@
         <v>688958</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2579,13 +2600,13 @@
         <v>244507</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="H30" s="7">
         <v>667</v>
@@ -2594,13 +2615,13 @@
         <v>417952</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="M30" s="7">
         <v>940</v>
@@ -2609,19 +2630,19 @@
         <v>662459</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>102</v>
+        <v>210</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="7">
         <v>653</v>
@@ -2630,13 +2651,13 @@
         <v>569392</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>207</v>
+        <v>112</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>66</v>
+        <v>213</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="H31" s="7">
         <v>1285</v>
@@ -2645,13 +2666,13 @@
         <v>763848</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M31" s="7">
         <v>1938</v>
@@ -2660,19 +2681,19 @@
         <v>1333241</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="7">
         <v>2126</v>
@@ -2681,13 +2702,13 @@
         <v>2279463</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>115</v>
+        <v>221</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="H32" s="7">
         <v>2795</v>
@@ -2696,13 +2717,13 @@
         <v>2223860</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="M32" s="7">
         <v>4921</v>
@@ -2711,13 +2732,13 @@
         <v>4503323</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,13 +2753,13 @@
         <v>3383178</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H33" s="7">
         <v>5362</v>
@@ -2747,13 +2768,13 @@
         <v>3804802</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M33" s="7">
         <v>8736</v>
@@ -2762,18 +2783,18 @@
         <v>7187980</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33B3_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33B3_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{152512F3-7555-4B1A-BD74-7D7C3B443D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DABBA134-C9E8-4720-B5E5-08C71565ACB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EACF6552-4E13-42C1-96C7-92A18496DA23}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{54B9E845-3C9E-42A9-8C2F-1025781BEF56}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="195">
   <si>
     <t>Poblacion que se despierta demasiado temprano de forma involuntaria en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -65,667 +65,559 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Diariamente o casi diariamente</t>
   </si>
   <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
   </si>
   <si>
     <t>A menudo (alguna vez a la semana)</t>
   </si>
   <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente (alguna vez al mes)</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
   </si>
   <si>
     <t>9,14%</t>
   </si>
   <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>Ocasionalmente (alguna vez al mes)</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
   </si>
   <si>
     <t>9,32%</t>
   </si>
   <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
   </si>
   <si>
     <t>10,43%</t>
   </si>
   <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
   </si>
   <si>
     <t>18,66%</t>
   </si>
   <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1140,8 +1032,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C319A30-D8A3-4424-AF4D-3037D0A1931D}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F42818-22E4-4E83-AAE9-95400922305C}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1258,10 +1150,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="D4" s="7">
-        <v>3918</v>
+        <v>47431</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1273,10 +1165,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="I4" s="7">
-        <v>9329</v>
+        <v>68614</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1288,10 +1180,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>21</v>
+        <v>189</v>
       </c>
       <c r="N4" s="7">
-        <v>13247</v>
+        <v>116046</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1309,10 +1201,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="D5" s="7">
-        <v>3748</v>
+        <v>45589</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1324,10 +1216,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>27</v>
+        <v>169</v>
       </c>
       <c r="I5" s="7">
-        <v>11569</v>
+        <v>82984</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1339,19 +1231,19 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="N5" s="7">
-        <v>15317</v>
+        <v>128573</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1360,10 +1252,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="7">
-        <v>31</v>
+        <v>166</v>
       </c>
       <c r="D6" s="7">
-        <v>22202</v>
+        <v>118636</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1375,10 +1267,10 @@
         <v>32</v>
       </c>
       <c r="H6" s="7">
-        <v>88</v>
+        <v>358</v>
       </c>
       <c r="I6" s="7">
-        <v>42819</v>
+        <v>171559</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>33</v>
@@ -1390,10 +1282,10 @@
         <v>35</v>
       </c>
       <c r="M6" s="7">
-        <v>119</v>
+        <v>524</v>
       </c>
       <c r="N6" s="7">
-        <v>65021</v>
+        <v>290195</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>36</v>
@@ -1411,10 +1303,10 @@
         <v>39</v>
       </c>
       <c r="C7" s="7">
-        <v>75</v>
+        <v>446</v>
       </c>
       <c r="D7" s="7">
-        <v>71037</v>
+        <v>422755</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -1426,10 +1318,10 @@
         <v>42</v>
       </c>
       <c r="H7" s="7">
-        <v>113</v>
+        <v>581</v>
       </c>
       <c r="I7" s="7">
-        <v>67016</v>
+        <v>352213</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>43</v>
@@ -1441,10 +1333,10 @@
         <v>45</v>
       </c>
       <c r="M7" s="7">
-        <v>188</v>
+        <v>1027</v>
       </c>
       <c r="N7" s="7">
-        <v>138053</v>
+        <v>774968</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>46</v>
@@ -1462,10 +1354,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>117</v>
+        <v>729</v>
       </c>
       <c r="D8" s="7">
-        <v>100905</v>
+        <v>634412</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>49</v>
@@ -1477,10 +1369,10 @@
         <v>49</v>
       </c>
       <c r="H8" s="7">
-        <v>243</v>
+        <v>1238</v>
       </c>
       <c r="I8" s="7">
-        <v>130733</v>
+        <v>675370</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>49</v>
@@ -1492,10 +1384,10 @@
         <v>49</v>
       </c>
       <c r="M8" s="7">
-        <v>360</v>
+        <v>1967</v>
       </c>
       <c r="N8" s="7">
-        <v>231638</v>
+        <v>1309782</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>49</v>
@@ -1515,10 +1407,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="D9" s="7">
-        <v>48081</v>
+        <v>80187</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -1530,10 +1422,10 @@
         <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>115</v>
+        <v>193</v>
       </c>
       <c r="I9" s="7">
-        <v>66725</v>
+        <v>109506</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -1545,10 +1437,10 @@
         <v>56</v>
       </c>
       <c r="M9" s="7">
-        <v>168</v>
+        <v>290</v>
       </c>
       <c r="N9" s="7">
-        <v>114806</v>
+        <v>189693</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -1566,10 +1458,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="D10" s="7">
-        <v>42775</v>
+        <v>65884</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -1581,10 +1473,10 @@
         <v>62</v>
       </c>
       <c r="H10" s="7">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="I10" s="7">
-        <v>77322</v>
+        <v>102049</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -1596,10 +1488,10 @@
         <v>65</v>
       </c>
       <c r="M10" s="7">
-        <v>195</v>
+        <v>252</v>
       </c>
       <c r="N10" s="7">
-        <v>120096</v>
+        <v>167933</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -1617,10 +1509,10 @@
         <v>29</v>
       </c>
       <c r="C11" s="7">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="D11" s="7">
-        <v>104337</v>
+        <v>136656</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>69</v>
@@ -1632,10 +1524,10 @@
         <v>71</v>
       </c>
       <c r="H11" s="7">
-        <v>270</v>
+        <v>411</v>
       </c>
       <c r="I11" s="7">
-        <v>140846</v>
+        <v>221180</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>72</v>
@@ -1647,10 +1539,10 @@
         <v>74</v>
       </c>
       <c r="M11" s="7">
-        <v>405</v>
+        <v>582</v>
       </c>
       <c r="N11" s="7">
-        <v>245183</v>
+        <v>357836</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>75</v>
@@ -1668,10 +1560,10 @@
         <v>39</v>
       </c>
       <c r="C12" s="7">
-        <v>371</v>
+        <v>621</v>
       </c>
       <c r="D12" s="7">
-        <v>354630</v>
+        <v>909168</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>78</v>
@@ -1683,10 +1575,10 @@
         <v>80</v>
       </c>
       <c r="H12" s="7">
-        <v>468</v>
+        <v>734</v>
       </c>
       <c r="I12" s="7">
-        <v>307662</v>
+        <v>525371</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>81</v>
@@ -1698,10 +1590,10 @@
         <v>83</v>
       </c>
       <c r="M12" s="7">
-        <v>839</v>
+        <v>1355</v>
       </c>
       <c r="N12" s="7">
-        <v>662292</v>
+        <v>1434540</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>84</v>
@@ -1719,10 +1611,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>612</v>
+        <v>963</v>
       </c>
       <c r="D13" s="7">
-        <v>549823</v>
+        <v>1191895</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>49</v>
@@ -1734,10 +1626,10 @@
         <v>49</v>
       </c>
       <c r="H13" s="7">
-        <v>995</v>
+        <v>1516</v>
       </c>
       <c r="I13" s="7">
-        <v>592555</v>
+        <v>958106</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>49</v>
@@ -1749,10 +1641,10 @@
         <v>49</v>
       </c>
       <c r="M13" s="7">
-        <v>1607</v>
+        <v>2479</v>
       </c>
       <c r="N13" s="7">
-        <v>1142378</v>
+        <v>2150002</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>49</v>
@@ -1772,10 +1664,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="D14" s="7">
-        <v>87681</v>
+        <v>46705</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>88</v>
@@ -1787,10 +1679,10 @@
         <v>90</v>
       </c>
       <c r="H14" s="7">
-        <v>193</v>
+        <v>91</v>
       </c>
       <c r="I14" s="7">
-        <v>124054</v>
+        <v>57188</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>91</v>
@@ -1802,19 +1694,19 @@
         <v>93</v>
       </c>
       <c r="M14" s="7">
-        <v>290</v>
+        <v>142</v>
       </c>
       <c r="N14" s="7">
-        <v>211735</v>
+        <v>103893</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1823,13 +1715,13 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="D15" s="7">
-        <v>69143</v>
+        <v>40810</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>97</v>
@@ -1838,10 +1730,10 @@
         <v>98</v>
       </c>
       <c r="H15" s="7">
-        <v>178</v>
+        <v>120</v>
       </c>
       <c r="I15" s="7">
-        <v>112429</v>
+        <v>74966</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>99</v>
@@ -1853,10 +1745,10 @@
         <v>101</v>
       </c>
       <c r="M15" s="7">
-        <v>252</v>
+        <v>166</v>
       </c>
       <c r="N15" s="7">
-        <v>181573</v>
+        <v>115777</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>102</v>
@@ -1874,10 +1766,10 @@
         <v>29</v>
       </c>
       <c r="C16" s="7">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="D16" s="7">
-        <v>147135</v>
+        <v>134031</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>105</v>
@@ -1889,10 +1781,10 @@
         <v>107</v>
       </c>
       <c r="H16" s="7">
-        <v>411</v>
+        <v>198</v>
       </c>
       <c r="I16" s="7">
-        <v>244373</v>
+        <v>119266</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>108</v>
@@ -1904,10 +1796,10 @@
         <v>110</v>
       </c>
       <c r="M16" s="7">
-        <v>582</v>
+        <v>327</v>
       </c>
       <c r="N16" s="7">
-        <v>391508</v>
+        <v>253297</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>111</v>
@@ -1925,10 +1817,10 @@
         <v>39</v>
       </c>
       <c r="C17" s="7">
-        <v>621</v>
+        <v>450</v>
       </c>
       <c r="D17" s="7">
-        <v>734317</v>
+        <v>483133</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>114</v>
@@ -1940,10 +1832,10 @@
         <v>116</v>
       </c>
       <c r="H17" s="7">
-        <v>734</v>
+        <v>638</v>
       </c>
       <c r="I17" s="7">
-        <v>578618</v>
+        <v>681946</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>117</v>
@@ -1955,10 +1847,10 @@
         <v>119</v>
       </c>
       <c r="M17" s="7">
-        <v>1355</v>
+        <v>1088</v>
       </c>
       <c r="N17" s="7">
-        <v>1312935</v>
+        <v>1165079</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>120</v>
@@ -1976,10 +1868,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>963</v>
+        <v>676</v>
       </c>
       <c r="D18" s="7">
-        <v>1038276</v>
+        <v>704680</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>49</v>
@@ -1991,10 +1883,10 @@
         <v>49</v>
       </c>
       <c r="H18" s="7">
-        <v>1516</v>
+        <v>1047</v>
       </c>
       <c r="I18" s="7">
-        <v>1059474</v>
+        <v>933366</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>49</v>
@@ -2006,10 +1898,10 @@
         <v>49</v>
       </c>
       <c r="M18" s="7">
-        <v>2479</v>
+        <v>1723</v>
       </c>
       <c r="N18" s="7">
-        <v>2097750</v>
+        <v>1638046</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>49</v>
@@ -2029,10 +1921,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="D19" s="7">
-        <v>51141</v>
+        <v>91649</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>124</v>
@@ -2044,10 +1936,10 @@
         <v>126</v>
       </c>
       <c r="H19" s="7">
-        <v>91</v>
+        <v>201</v>
       </c>
       <c r="I19" s="7">
-        <v>64242</v>
+        <v>118907</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>127</v>
@@ -2059,10 +1951,10 @@
         <v>129</v>
       </c>
       <c r="M19" s="7">
-        <v>142</v>
+        <v>316</v>
       </c>
       <c r="N19" s="7">
-        <v>115382</v>
+        <v>210556</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>130</v>
@@ -2080,49 +1972,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="D20" s="7">
-        <v>42911</v>
+        <v>82074</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>200</v>
+      </c>
+      <c r="I20" s="7">
+        <v>120284</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="H20" s="7">
-        <v>120</v>
-      </c>
-      <c r="I20" s="7">
-        <v>82542</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>136</v>
       </c>
       <c r="L20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M20" s="7">
+        <v>295</v>
+      </c>
+      <c r="N20" s="7">
+        <v>202357</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="M20" s="7">
-        <v>166</v>
-      </c>
-      <c r="N20" s="7">
-        <v>125453</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2131,49 +2023,49 @@
         <v>29</v>
       </c>
       <c r="C21" s="7">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="D21" s="7">
-        <v>139972</v>
+        <v>144088</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="7">
+        <v>318</v>
+      </c>
+      <c r="I21" s="7">
+        <v>186556</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H21" s="7">
-        <v>198</v>
-      </c>
-      <c r="I21" s="7">
-        <v>128123</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>505</v>
+      </c>
+      <c r="N21" s="7">
+        <v>330645</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="M21" s="7">
-        <v>327</v>
-      </c>
-      <c r="N21" s="7">
-        <v>268095</v>
-      </c>
-      <c r="O21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2182,49 +2074,49 @@
         <v>39</v>
       </c>
       <c r="C22" s="7">
-        <v>450</v>
+        <v>609</v>
       </c>
       <c r="D22" s="7">
-        <v>494748</v>
+        <v>609019</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>842</v>
+      </c>
+      <c r="I22" s="7">
+        <v>666847</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H22" s="7">
-        <v>638</v>
-      </c>
-      <c r="I22" s="7">
-        <v>599465</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>1451</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1275866</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="M22" s="7">
-        <v>1088</v>
-      </c>
-      <c r="N22" s="7">
-        <v>1094212</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2233,10 +2125,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>676</v>
+        <v>1006</v>
       </c>
       <c r="D23" s="7">
-        <v>728772</v>
+        <v>926831</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>49</v>
@@ -2248,10 +2140,10 @@
         <v>49</v>
       </c>
       <c r="H23" s="7">
-        <v>1047</v>
+        <v>1561</v>
       </c>
       <c r="I23" s="7">
-        <v>874371</v>
+        <v>1092593</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>49</v>
@@ -2263,10 +2155,10 @@
         <v>49</v>
       </c>
       <c r="M23" s="7">
-        <v>1723</v>
+        <v>2567</v>
       </c>
       <c r="N23" s="7">
-        <v>1603142</v>
+        <v>2019424</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>49</v>
@@ -2280,55 +2172,55 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>115</v>
+        <v>322</v>
       </c>
       <c r="D24" s="7">
-        <v>98996</v>
+        <v>265973</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>615</v>
+      </c>
+      <c r="I24" s="7">
+        <v>354214</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="H24" s="7">
-        <v>201</v>
-      </c>
-      <c r="I24" s="7">
-        <v>134792</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>937</v>
+      </c>
+      <c r="N24" s="7">
+        <v>620187</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="M24" s="7">
-        <v>316</v>
-      </c>
-      <c r="N24" s="7">
-        <v>233787</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2337,49 +2229,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>95</v>
+        <v>273</v>
       </c>
       <c r="D25" s="7">
-        <v>85929</v>
+        <v>234357</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>667</v>
+      </c>
+      <c r="I25" s="7">
+        <v>380283</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="H25" s="7">
-        <v>200</v>
-      </c>
-      <c r="I25" s="7">
-        <v>134090</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>940</v>
+      </c>
+      <c r="N25" s="7">
+        <v>614640</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="M25" s="7">
-        <v>295</v>
-      </c>
-      <c r="N25" s="7">
-        <v>220020</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2388,49 +2280,49 @@
         <v>29</v>
       </c>
       <c r="C26" s="7">
-        <v>187</v>
+        <v>653</v>
       </c>
       <c r="D26" s="7">
-        <v>155746</v>
+        <v>533412</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>1285</v>
+      </c>
+      <c r="I26" s="7">
+        <v>698561</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="H26" s="7">
-        <v>318</v>
-      </c>
-      <c r="I26" s="7">
-        <v>207688</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>1938</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1231973</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="M26" s="7">
-        <v>505</v>
-      </c>
-      <c r="N26" s="7">
-        <v>363435</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2439,49 +2331,49 @@
         <v>39</v>
       </c>
       <c r="C27" s="7">
-        <v>609</v>
+        <v>2126</v>
       </c>
       <c r="D27" s="7">
-        <v>624732</v>
+        <v>2424076</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="H27" s="7">
+        <v>2795</v>
+      </c>
+      <c r="I27" s="7">
+        <v>2226377</v>
+      </c>
+      <c r="J27" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="H27" s="7">
-        <v>842</v>
-      </c>
-      <c r="I27" s="7">
-        <v>671099</v>
-      </c>
-      <c r="J27" s="7" t="s">
+      <c r="K27" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="M27" s="7">
+        <v>4921</v>
+      </c>
+      <c r="N27" s="7">
+        <v>4650453</v>
+      </c>
+      <c r="O27" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="M27" s="7">
-        <v>1451</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1295831</v>
-      </c>
-      <c r="O27" s="7" t="s">
+      <c r="P27" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2490,10 +2382,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>1006</v>
+        <v>3374</v>
       </c>
       <c r="D28" s="7">
-        <v>965403</v>
+        <v>3457818</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>49</v>
@@ -2505,10 +2397,10 @@
         <v>49</v>
       </c>
       <c r="H28" s="7">
-        <v>1561</v>
+        <v>5362</v>
       </c>
       <c r="I28" s="7">
-        <v>1147669</v>
+        <v>3659435</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>49</v>
@@ -2520,10 +2412,10 @@
         <v>49</v>
       </c>
       <c r="M28" s="7">
-        <v>2567</v>
+        <v>8736</v>
       </c>
       <c r="N28" s="7">
-        <v>2113073</v>
+        <v>7117253</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>49</v>
@@ -2536,273 +2428,15 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>322</v>
-      </c>
-      <c r="D29" s="7">
-        <v>289816</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H29" s="7">
-        <v>615</v>
-      </c>
-      <c r="I29" s="7">
-        <v>399141</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="M29" s="7">
-        <v>937</v>
-      </c>
-      <c r="N29" s="7">
-        <v>688958</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="7">
-        <v>273</v>
-      </c>
-      <c r="D30" s="7">
-        <v>244507</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H30" s="7">
-        <v>667</v>
-      </c>
-      <c r="I30" s="7">
-        <v>417952</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="M30" s="7">
-        <v>940</v>
-      </c>
-      <c r="N30" s="7">
-        <v>662459</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="7">
-        <v>653</v>
-      </c>
-      <c r="D31" s="7">
-        <v>569392</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H31" s="7">
-        <v>1285</v>
-      </c>
-      <c r="I31" s="7">
-        <v>763848</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="M31" s="7">
-        <v>1938</v>
-      </c>
-      <c r="N31" s="7">
-        <v>1333241</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="7">
-        <v>2126</v>
-      </c>
-      <c r="D32" s="7">
-        <v>2279463</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H32" s="7">
-        <v>2795</v>
-      </c>
-      <c r="I32" s="7">
-        <v>2223860</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="M32" s="7">
-        <v>4921</v>
-      </c>
-      <c r="N32" s="7">
-        <v>4503323</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>3374</v>
-      </c>
-      <c r="D33" s="7">
-        <v>3383178</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H33" s="7">
-        <v>5362</v>
-      </c>
-      <c r="I33" s="7">
-        <v>3804802</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M33" s="7">
-        <v>8736</v>
-      </c>
-      <c r="N33" s="7">
-        <v>7187980</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>230</v>
+      <c r="A29" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/P33B3_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33B3_2023-Habitat-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Poblacion que se despierta demasiado temprano de forma involuntaria en 2023</t>
+          <t>Poblacion según la frecuencia con la que se despierta demasiado temprano de forma involuntaria en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
